--- a/Curso Base de Datos 2/Estudiantes.xlsx
+++ b/Curso Base de Datos 2/Estudiantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Base de Datos 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5329B62-EB0A-4621-B961-CA59371C3A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A4615B-67B7-4FB9-9B9C-E30777E193E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -72,18 +72,6 @@
     <t>santiago.uribeg@autonoma.edu.co</t>
   </si>
   <si>
-    <t>TREJOS GIL TOMAS</t>
-  </si>
-  <si>
-    <t>tomas.trejosg@autonoma.edu.co</t>
-  </si>
-  <si>
-    <t>SANCHEZ PINILLA LUIS MIGUEL</t>
-  </si>
-  <si>
-    <t>luism.sanchezp@autonoma.edu.co</t>
-  </si>
-  <si>
     <t>RIVERA BUITRAGO SERGIO ARISTIDES</t>
   </si>
   <si>
@@ -102,18 +90,6 @@
     <t>asdrubala.pereza@autonoma.edu.co</t>
   </si>
   <si>
-    <t>PEREA MOSQUERA JASSY MELISSA</t>
-  </si>
-  <si>
-    <t>jassym.peream@autonoma.edu.co</t>
-  </si>
-  <si>
-    <t>PAEZ CHITIVA CARLOS ANDRES</t>
-  </si>
-  <si>
-    <t>carlosa.paezc@autonoma.edu.co</t>
-  </si>
-  <si>
     <t>OSTIOS ARIAS MARTIN</t>
   </si>
   <si>
@@ -138,36 +114,18 @@
     <t>mariaj.munozp@autonoma.edu.co</t>
   </si>
   <si>
-    <t>MORALES SANCHEZ VALENTINA</t>
-  </si>
-  <si>
-    <t>valentina.moraless@autonoma.edu.co</t>
-  </si>
-  <si>
     <t>MOLANO ARISTIZABAL CAMILO ANDRES</t>
   </si>
   <si>
     <t>camiloa.molanoa@autonoma.edu.co</t>
   </si>
   <si>
-    <t>MARULANDA QUINTERO JUAN DAVID</t>
-  </si>
-  <si>
-    <t>juand.marulandaq@autonoma.edu.co</t>
-  </si>
-  <si>
     <t>LESMES MARIN SANTIAGO</t>
   </si>
   <si>
     <t>santiago.lesmesm@autonoma.edu.co</t>
   </si>
   <si>
-    <t>GONZALEZ OSORIO JUAN PABLO</t>
-  </si>
-  <si>
-    <t>juanp.gonzalezo@autonoma.edu.co</t>
-  </si>
-  <si>
     <t>GOMEZ ROJAS VICTOR MANUEL</t>
   </si>
   <si>
@@ -180,12 +138,6 @@
     <t>abels.gomezl@autonoma.edu.co</t>
   </si>
   <si>
-    <t>GIRALDO MONTOYA JIMMY ALEXANDER</t>
-  </si>
-  <si>
-    <t>jimmya.giraldom@autonoma.edu.co</t>
-  </si>
-  <si>
     <t>DUQUE ROBLEDO SANTIAGO</t>
   </si>
   <si>
@@ -216,12 +168,6 @@
     <t>GITHUB</t>
   </si>
   <si>
-    <t>https://github.com/ValenMorales/TalleresBasesDeDatos2</t>
-  </si>
-  <si>
-    <t>https://github.com/Th3C0deWizard/TalleresBasesDeDatos2</t>
-  </si>
-  <si>
     <t>https://github.com/JeroGaviiria/TalleresBasesDeDatos2</t>
   </si>
   <si>
@@ -231,18 +177,9 @@
     <t>https://github.com/MiguelAP30/TalleresDeBasesDeDatos2</t>
   </si>
   <si>
-    <t>https://github.com/ttrejosg/TalleresBasesDeDatosII</t>
-  </si>
-  <si>
     <t>https://github.com/CamiloA-17/TalleresDeBasesDeDatos2.git</t>
   </si>
   <si>
-    <t>https://github.com/PabloGoProg/TalleresBasesDeDatos2</t>
-  </si>
-  <si>
-    <t>https://github.com/Jimmygm16/TalleresBasesDeDatos2</t>
-  </si>
-  <si>
     <t>https://github.com/JulianV122/TalleresBasesDatos2</t>
   </si>
   <si>
@@ -265,6 +202,51 @@
   </si>
   <si>
     <t>https://github.com/marcelagiraldo/TalleresBasesDeDatos2.git</t>
+  </si>
+  <si>
+    <t>https://github.com/VictorMagrdev/TalleresBasesDeDatos2</t>
+  </si>
+  <si>
+    <t>https://github.com/SergioAristides/TallerBD2SergioAristidesRiveraBuitrago.git</t>
+  </si>
+  <si>
+    <t>https://github.com/JuanFosoA/TalleresBasesDeDatos2</t>
+  </si>
+  <si>
+    <t>TALLER 1</t>
+  </si>
+  <si>
+    <t>https://github.com/CamiloM123/TalleresBasesDeDatos2</t>
+  </si>
+  <si>
+    <t>TALLER 2</t>
+  </si>
+  <si>
+    <t>TALLER 3</t>
+  </si>
+  <si>
+    <t>PROYECTO</t>
+  </si>
+  <si>
+    <t>COMPRAYA</t>
+  </si>
+  <si>
+    <t>FACTURAYA</t>
+  </si>
+  <si>
+    <t>VIAJAYA</t>
+  </si>
+  <si>
+    <t>CONCIERTOSYA</t>
+  </si>
+  <si>
+    <t>CONCIERTOYA</t>
+  </si>
+  <si>
+    <t>DOCTORYA</t>
+  </si>
+  <si>
+    <t>https://github.com/SDuque28/TalleresBasesDeDatos2</t>
   </si>
 </sst>
 </file>
@@ -623,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -753,6 +735,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -799,7 +792,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,6 +802,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1131,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,10 +1143,11 @@
     <col min="6" max="6" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="52.85546875" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" customWidth="1"/>
-    <col min="9" max="9" width="61.85546875" customWidth="1"/>
+    <col min="9" max="9" width="56.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1176,10 +1173,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="L1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1205,10 +1214,22 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1234,12 +1255,24 @@
         <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>1020</v>
@@ -1248,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>1002592890</v>
+        <v>1002608919</v>
       </c>
       <c r="E4" s="2">
-        <v>10202150085</v>
+        <v>10202150093</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -1263,12 +1296,24 @@
         <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>1020</v>
@@ -1277,10 +1322,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>1005027212</v>
+        <v>1022322054</v>
       </c>
       <c r="E5" s="2">
-        <v>10202000046</v>
+        <v>10202200135</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
@@ -1291,11 +1336,25 @@
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>1020</v>
@@ -1304,10 +1363,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>1002608919</v>
+        <v>1004367716</v>
       </c>
       <c r="E6" s="2">
-        <v>10202150093</v>
+        <v>10202200118</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -1318,11 +1377,25 @@
       <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>1020</v>
@@ -1331,10 +1404,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>1022322054</v>
+        <v>1055751017</v>
       </c>
       <c r="E7" s="2">
-        <v>10202200135</v>
+        <v>10202200132</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -1346,12 +1419,24 @@
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>1020</v>
@@ -1360,10 +1445,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>1004367716</v>
+        <v>1006739967</v>
       </c>
       <c r="E8" s="2">
-        <v>10202200118</v>
+        <v>10202350228</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -1375,12 +1460,24 @@
         <v>23</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>1020</v>
@@ -1389,10 +1486,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>1004012527</v>
+        <v>1002545071</v>
       </c>
       <c r="E9" s="2">
-        <v>10202150099</v>
+        <v>10202050004</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -1403,11 +1500,25 @@
       <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>1020</v>
@@ -1416,10 +1527,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>1123432120</v>
+        <v>1056121086</v>
       </c>
       <c r="E10" s="2">
-        <v>10202150088</v>
+        <v>10202200137</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -1431,12 +1542,24 @@
         <v>27</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>1020</v>
@@ -1445,10 +1568,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="2">
-        <v>1055751017</v>
+        <v>1055358686</v>
       </c>
       <c r="E11" s="2">
-        <v>10202200132</v>
+        <v>10202200144</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -1459,11 +1582,25 @@
       <c r="H11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>1020</v>
@@ -1472,10 +1609,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>1006739967</v>
+        <v>1055750429</v>
       </c>
       <c r="E12" s="2">
-        <v>10202350228</v>
+        <v>10202200121</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -1487,12 +1624,24 @@
         <v>31</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>1020</v>
@@ -1501,10 +1650,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>1002545071</v>
+        <v>1054857572</v>
       </c>
       <c r="E13" s="2">
-        <v>10202050004</v>
+        <v>10202200129</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -1515,11 +1664,25 @@
       <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>1020</v>
@@ -1528,10 +1691,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>1056121086</v>
+        <v>1091354977</v>
       </c>
       <c r="E14" s="2">
-        <v>10202200137</v>
+        <v>10202200125</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -1543,12 +1706,24 @@
         <v>35</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>1020</v>
@@ -1557,10 +1732,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>1002655357</v>
+        <v>1002609206</v>
       </c>
       <c r="E15" s="2">
-        <v>10202150098</v>
+        <v>10202200145</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -1572,12 +1747,24 @@
         <v>37</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <v>1020</v>
@@ -1586,10 +1773,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="2">
-        <v>1055358686</v>
+        <v>1056120961</v>
       </c>
       <c r="E16" s="2">
-        <v>10202200144</v>
+        <v>10202200123</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -1601,12 +1788,24 @@
         <v>39</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
         <v>1020</v>
@@ -1615,10 +1814,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="2">
-        <v>1060655865</v>
+        <v>1053764060</v>
       </c>
       <c r="E17" s="2">
-        <v>10201900057</v>
+        <v>10202100067</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -1629,285 +1828,81 @@
       <c r="H17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>1055750429</v>
+        <v>1054398870</v>
       </c>
       <c r="E18" s="2">
-        <v>10202200121</v>
+        <v>10302400076</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1054478436</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10202150107</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1054857572</v>
-      </c>
-      <c r="E20" s="2">
-        <v>10202200129</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1091354977</v>
-      </c>
-      <c r="E21" s="2">
-        <v>10202200125</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1192763821</v>
-      </c>
-      <c r="E22" s="2">
-        <v>10202100084</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1002609206</v>
-      </c>
-      <c r="E23" s="2">
-        <v>10202200145</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1056120961</v>
-      </c>
-      <c r="E24" s="2">
-        <v>10202200123</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1053764060</v>
-      </c>
-      <c r="E25" s="2">
-        <v>10202100067</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1030</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1054398870</v>
-      </c>
-      <c r="E26" s="2">
-        <v>10302400076</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>64</v>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="I15" r:id="rId1" xr:uid="{E2925DE8-9B23-4C32-9611-D47BA839D497}"/>
-    <hyperlink ref="I10" r:id="rId2" xr:uid="{A03059D8-0CE8-4250-9D00-B22672D2F700}"/>
-    <hyperlink ref="I26" r:id="rId3" xr:uid="{8D0C1149-46CE-4090-B0DB-1FFD8699FB04}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{8FB5B586-E0C7-43CA-94EA-E5CC702E888B}"/>
-    <hyperlink ref="I7" r:id="rId5" xr:uid="{1A297E71-6E56-427C-8A74-C95DC69730B0}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{4F4BDD49-99DA-4249-BD45-B5F8EDEBCF75}"/>
-    <hyperlink ref="I16" r:id="rId7" xr:uid="{60C1F268-D77B-4508-8DA8-BF54583AAE2A}"/>
-    <hyperlink ref="I19" r:id="rId8" xr:uid="{9E27D2CD-98A4-484D-A7C8-5CE5390D7873}"/>
-    <hyperlink ref="I22" r:id="rId9" xr:uid="{F8E2FD6A-FF2A-4CBB-95F2-99CDF547E96F}"/>
-    <hyperlink ref="I2" r:id="rId10" xr:uid="{2B00B708-9C51-4197-AB99-7D60F299777B}"/>
-    <hyperlink ref="I24" r:id="rId11" xr:uid="{2A32EDF4-90F3-4685-AAED-262E16270024}"/>
-    <hyperlink ref="I14" r:id="rId12" xr:uid="{B4F04B10-B8CD-4369-B249-A2F40D9622C3}"/>
-    <hyperlink ref="I18" r:id="rId13" xr:uid="{6F29AB10-B7E5-4FA4-B792-33217B9EEF0E}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{EBFC04B2-D2B9-4396-85D3-608DD7F70323}"/>
-    <hyperlink ref="I21" r:id="rId15" xr:uid="{81DD068C-A87B-4CEB-AD69-633DD98F4014}"/>
-    <hyperlink ref="I12" r:id="rId16" xr:uid="{4C6829D2-9541-4709-AE7A-2DC871D9E95C}"/>
-    <hyperlink ref="I25" r:id="rId17" xr:uid="{1894197B-1F5B-4578-A82B-F64E77841046}"/>
+    <hyperlink ref="I18" r:id="rId1" xr:uid="{8D0C1149-46CE-4090-B0DB-1FFD8699FB04}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{8FB5B586-E0C7-43CA-94EA-E5CC702E888B}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{1A297E71-6E56-427C-8A74-C95DC69730B0}"/>
+    <hyperlink ref="I11" r:id="rId4" xr:uid="{60C1F268-D77B-4508-8DA8-BF54583AAE2A}"/>
+    <hyperlink ref="I2" r:id="rId5" xr:uid="{2B00B708-9C51-4197-AB99-7D60F299777B}"/>
+    <hyperlink ref="I16" r:id="rId6" xr:uid="{2A32EDF4-90F3-4685-AAED-262E16270024}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{B4F04B10-B8CD-4369-B249-A2F40D9622C3}"/>
+    <hyperlink ref="I12" r:id="rId8" xr:uid="{6F29AB10-B7E5-4FA4-B792-33217B9EEF0E}"/>
+    <hyperlink ref="I6" r:id="rId9" xr:uid="{EBFC04B2-D2B9-4396-85D3-608DD7F70323}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{81DD068C-A87B-4CEB-AD69-633DD98F4014}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{1894197B-1F5B-4578-A82B-F64E77841046}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{3769DA67-2B20-4B1D-98B9-E11348BF2724}"/>
+    <hyperlink ref="I4" r:id="rId13" xr:uid="{2B95E58A-62C9-4DD9-8664-4B9C758B594F}"/>
+    <hyperlink ref="I7" r:id="rId14" xr:uid="{B87404E8-652E-441F-988B-B86112B1AFAE}"/>
+    <hyperlink ref="I8" r:id="rId15" xr:uid="{098D09F5-F985-4660-8C00-6D1A2902B497}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{1FBD92CF-74D7-43BA-B55E-138447D2CCB8}"/>
+    <hyperlink ref="I15" r:id="rId17" xr:uid="{57633B3E-C0BA-4C5E-BFE2-0974D7B516D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
